--- a/metrics/MAPE/average & upto/Retinopatía proliferativa.xlsx
+++ b/metrics/MAPE/average & upto/Retinopatía proliferativa.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8014810470463.256</v>
+        <v>8186702269253.231</v>
       </c>
       <c r="C3" t="n">
-        <v>8197207126459.17</v>
+        <v>8285087296173.306</v>
       </c>
       <c r="D3" t="n">
-        <v>8243250399021.804</v>
+        <v>8346566934967.531</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9577350433423.787</v>
+        <v>9571428588440.93</v>
       </c>
       <c r="C4" t="n">
-        <v>9558551645128.961</v>
+        <v>9608674444503.348</v>
       </c>
       <c r="D4" t="n">
-        <v>9604813772637.252</v>
+        <v>9858502425501.027</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72208456185050.36</v>
+        <v>59816493737409.26</v>
       </c>
       <c r="C5" t="n">
-        <v>80337835323453.58</v>
+        <v>66146550921825.6</v>
       </c>
       <c r="D5" t="n">
-        <v>73181940559437.34</v>
+        <v>57438863982832.07</v>
       </c>
     </row>
   </sheetData>
